--- a/Examples/rhorc/rhorc_model.xlsx
+++ b/Examples/rhorc/rhorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Modelos EES/RHORC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rhorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{ED0F38AA-201F-4BDD-872B-B98301C4B0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51711E2F-4EC4-43C2-B6DF-84B9F65CA31B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A4F9D-1B0D-4F08-819E-4B07D04A132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$5</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$B$4</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1009,8 +1009,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,13 +1056,13 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,13 +1070,13 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,13 +1084,13 @@
         <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,13 +1098,13 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,13 +1112,13 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,13 +1126,13 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1140,13 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1158,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D9</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1835,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1842BE-1464-4B48-A823-9C845EA8F5B1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
